--- a/output/Clyde_River/k_7/clusters_data.xlsx
+++ b/output/Clyde_River/k_7/clusters_data.xlsx
@@ -20,78 +20,309 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>2219</t>
+  </si>
+  <si>
+    <t>2218</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>2217</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
     <t>231</t>
   </si>
   <si>
     <t>230</t>
   </si>
   <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
     <t>229</t>
   </si>
   <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>37</t>
+    <t>222</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
     <t>228</t>
   </si>
   <si>
     <t>226</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>227</t>
   </si>
   <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>469</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
     <t>447</t>
   </si>
   <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>468</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>469</t>
-  </si>
-  <si>
-    <t>465</t>
-  </si>
-  <si>
-    <t>466</t>
-  </si>
-  <si>
     <t>97</t>
   </si>
   <si>
@@ -104,159 +335,6 @@
     <t>96</t>
   </si>
   <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>479</t>
-  </si>
-  <si>
-    <t>478</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>309</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>965</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>475</t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
@@ -302,18 +380,12 @@
     <t>116</t>
   </si>
   <si>
-    <t>247</t>
-  </si>
-  <si>
     <t>120</t>
   </si>
   <si>
     <t>132</t>
   </si>
   <si>
-    <t>129</t>
-  </si>
-  <si>
     <t>118</t>
   </si>
   <si>
@@ -350,9 +422,6 @@
     <t>107</t>
   </si>
   <si>
-    <t>248</t>
-  </si>
-  <si>
     <t>74</t>
   </si>
   <si>
@@ -392,79 +461,10 @@
     <t>104</t>
   </si>
   <si>
-    <t>350</t>
-  </si>
-  <si>
     <t>329</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
     <t>52</t>
-  </si>
-  <si>
-    <t>472</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>454</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>473</t>
-  </si>
-  <si>
-    <t>441</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>457</t>
-  </si>
-  <si>
-    <t>458</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>512</t>
-  </si>
-  <si>
-    <t>2219</t>
-  </si>
-  <si>
-    <t>2218</t>
-  </si>
-  <si>
-    <t>516</t>
-  </si>
-  <si>
-    <t>2217</t>
   </si>
 </sst>
 </file>
@@ -805,18 +805,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL8"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:56">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:64">
+    <row r="2" spans="1:56">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -842,285 +842,282 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:64">
+    <row r="3" spans="1:56">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
-        <v>28</v>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:64">
+    <row r="4" spans="1:56">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" t="s">
-        <v>50</v>
-      </c>
-      <c r="X4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:64">
+    <row r="5" spans="1:56">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R5" t="s">
-        <v>74</v>
-      </c>
-      <c r="S5" t="s">
-        <v>75</v>
-      </c>
-      <c r="T5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U5" t="s">
         <v>77</v>
       </c>
-      <c r="V5" t="s">
-        <v>78</v>
-      </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="6" spans="1:64">
+    <row r="6" spans="1:56">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>81</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>82</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" t="s">
-        <v>66</v>
-      </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
         <v>87</v>
@@ -1132,229 +1129,232 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" t="s">
-        <v>91</v>
-      </c>
-      <c r="R6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S6" t="s">
-        <v>93</v>
-      </c>
-      <c r="T6" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6" t="s">
-        <v>67</v>
-      </c>
-      <c r="V6" t="s">
-        <v>95</v>
-      </c>
-      <c r="W6" t="s">
-        <v>96</v>
-      </c>
-      <c r="X6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>122</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>7</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>48</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>126</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>96</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>128</v>
-      </c>
     </row>
-    <row r="7" spans="1:64">
+    <row r="7" spans="1:56">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="M7" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="N7" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>104</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:64">
+    <row r="8" spans="1:56">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" t="s">
+        <v>115</v>
+      </c>
+      <c r="O8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>118</v>
+      </c>
+      <c r="R8" t="s">
+        <v>119</v>
+      </c>
+      <c r="S8" t="s">
+        <v>120</v>
+      </c>
+      <c r="T8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" t="s">
+        <v>121</v>
+      </c>
+      <c r="V8" t="s">
+        <v>122</v>
+      </c>
+      <c r="W8" t="s">
+        <v>123</v>
+      </c>
+      <c r="X8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS8" t="s">
         <v>143</v>
       </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="AT8" t="s">
         <v>144</v>
       </c>
-      <c r="E8" t="s">
+      <c r="AU8" t="s">
         <v>145</v>
       </c>
-      <c r="F8" t="s">
+      <c r="AV8" t="s">
         <v>146</v>
       </c>
-      <c r="G8" t="s">
+      <c r="AW8" t="s">
         <v>147</v>
       </c>
-      <c r="H8" t="s">
+      <c r="AX8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA8" t="s">
         <v>148</v>
       </c>
-      <c r="I8" t="s">
+      <c r="BB8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD8" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1381,12 +1381,15 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
     </row>
@@ -1395,13 +1398,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1429,12 +1435,18 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>6</v>
       </c>
     </row>
@@ -1443,13 +1455,19 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>6</v>
+      <c r="F6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1460,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1471,10 +1489,10 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
